--- a/Data/HealthcareModule.xlsx
+++ b/Data/HealthcareModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37CDAC1-A8EA-2D45-A067-E1556EC323A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F34A9-F375-C741-92B4-0137C3BFD196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47560" yWindow="-3500" windowWidth="15960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17420" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,21 +138,21 @@
          </t>
   </si>
   <si>
-    <t>25, 27, 31, 35, 39, 47, 51, 55, 59</t>
-  </si>
-  <si>
-    <t>31, 35, 39, 47, 51, 55, 59</t>
-  </si>
-  <si>
     <t>• Yes, someone in my family has been uninsured
 • No, no one in my family has been uninsured</t>
+  </si>
+  <si>
+    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63</t>
+  </si>
+  <si>
+    <t>31, 35, 39, 47, 51, 55, 59, 63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1420,11 +1420,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="1" customWidth="1"/>
     <col min="2" max="4" width="31.33203125" style="1" customWidth="1"/>
@@ -1433,7 +1433,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1450,12 +1450,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="68" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1464,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1481,10 +1481,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="68" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1498,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="136" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1513,10 +1513,10 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="136" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1528,31 +1528,31 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>

--- a/Data/HealthcareModule.xlsx
+++ b/Data/HealthcareModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F34A9-F375-C741-92B4-0137C3BFD196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECCC98B-D7AC-1040-ADAF-F2127198B84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17420" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12140" yWindow="500" windowWidth="17420" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,17 +142,17 @@
 • No, no one in my family has been uninsured</t>
   </si>
   <si>
-    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63</t>
-  </si>
-  <si>
-    <t>31, 35, 39, 47, 51, 55, 59, 63</t>
+    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63, 67</t>
+  </si>
+  <si>
+    <t>31, 35, 39, 47, 51, 55, 59, 63, 67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1424,7 +1424,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44" style="1" customWidth="1"/>
     <col min="2" max="4" width="31.33203125" style="1" customWidth="1"/>
@@ -1433,7 +1433,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" customHeight="1">
+    <row r="2" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" customHeight="1">
+    <row r="3" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="68" customHeight="1">
+    <row r="4" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="136" customHeight="1">
+    <row r="5" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="136" customHeight="1">
+    <row r="6" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1531,28 +1531,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>

--- a/Data/HealthcareModule.xlsx
+++ b/Data/HealthcareModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECCC98B-D7AC-1040-ADAF-F2127198B84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6885B448-5B0F-E943-AF73-36CDAEFED4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="500" windowWidth="17420" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17420" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,10 @@
 • No, no one in my family has been uninsured</t>
   </si>
   <si>
-    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63, 67</t>
-  </si>
-  <si>
-    <t>31, 35, 39, 47, 51, 55, 59, 63, 67</t>
+    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63, 67, 69, 75</t>
+  </si>
+  <si>
+    <t>31, 35, 39, 47, 51, 55, 59, 63, 67, 69, 75</t>
   </si>
 </sst>
 </file>

--- a/Data/HealthcareModule.xlsx
+++ b/Data/HealthcareModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6885B448-5B0F-E943-AF73-36CDAEFED4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A83C72D-24C5-3F44-ACA6-6EB021E4AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17420" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="13880" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>31, 35, 39, 47, 51, 55, 59, 63, 67, 69, 75</t>
+  </si>
+  <si>
+    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63, 67, 69, 75, 83, 87</t>
   </si>
 </sst>
 </file>
@@ -1420,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1464,10 +1467,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/HealthcareModule.xlsx
+++ b/Data/HealthcareModule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,12 +15,23 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -34,10 +45,14 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
-    <t>Thinking about the past 12 months, did any of your family members go without health insurance at any time since September 2019 ?</t>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t>Thinking about the past 12 months, did you or any of your family members in your household go without health insurance at any time?</t>
+  </si>
+  <si>
+    <t>• Yes, someone in my family has been uninsured
+• No, no one in my family has been uninsured</t>
   </si>
   <si>
     <t>Urban Institute HRMS Survey (March 2020)</t>
@@ -53,6 +68,24 @@
       </rPr>
       <t>http://hrms.urban.org/survey-instrument/</t>
     </r>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Who in your household did not have health insurance at any time in the past 12 months?</t>
+  </si>
+  <si>
+    <t>• Myself
+• My partner
+• My child(ren)
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>Thinking about the past 12 months, did any of your family members go without health insurance at any time since September 2019 ?</t>
+  </si>
+  <si>
+    <t>09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 03/02/2021-03/05/2021 03/31/2021-04/02/2021 04/28/2021-05/01/2021 05/25/2021-05/28/2021 06/23/2021-06/25/2021 07/21/2021-07/23/2021 08/04/2021-08/06/2021 09/15/2021-09/17/2021 11/10/2021-11/16/2021 12/08/2021-12/14/2021</t>
   </si>
   <si>
     <t xml:space="preserve">How many family members did not have health insurance at any time since September 2019?  </t>
@@ -111,6 +144,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">11/03/2020-11/05/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 03/02/2021-03/05/2021 03/31/2021-04/02/2021 04/28/2021-05/01/2021 05/25/2021-05/28/2021 06/23/2021-06/25/2021 07/21/2021-07/23/2021 08/04/2021-08/06/2021 09/15/2021-09/17/2021 </t>
+  </si>
+  <si>
     <t xml:space="preserve">In the past month, have you done any of the following:  
 Select all that apply. </t>
   </si>
@@ -125,6 +161,9 @@
     <t xml:space="preserve">Developed by RAPID Team </t>
   </si>
   <si>
+    <t xml:space="preserve">09/21/2020-09/24/2020 10/05/2020-10/08/2020 11/03/2020-11/05/2020 12/01/2020-12/03/2020 01/05/2021-01/07/2021 03/02/2021-03/05/2021 03/31/2021-04/02/2021 04/28/2021-05/01/2021 05/25/2021-05/28/2021 06/23/2021-06/25/2021 07/21/2021-07/23/2021 08/04/2021-08/06/2021 09/15/2021-09/17/2021 </t>
+  </si>
+  <si>
     <t xml:space="preserve">In the past month, has your child(ren) aged 0-5 done any of the following:Select all that apply. </t>
   </si>
   <si>
@@ -136,26 +175,13 @@
   <si>
     <t xml:space="preserve">Developed by RAPID Team 
          </t>
-  </si>
-  <si>
-    <t>• Yes, someone in my family has been uninsured
-• No, no one in my family has been uninsured</t>
-  </si>
-  <si>
-    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63, 67, 69, 75</t>
-  </si>
-  <si>
-    <t>31, 35, 39, 47, 51, 55, 59, 63, 67, 69, 75</t>
-  </si>
-  <si>
-    <t>25, 27, 31, 35, 39, 47, 51, 55, 59, 63, 67, 69, 75, 83, 87</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1421,22 +1447,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44" style="1" customWidth="1"/>
-    <col min="2" max="4" width="31.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1453,120 +1479,151 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="63">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="236.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="236.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="173.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="204.75">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>23</v>
+    <row r="8" spans="1:5" ht="204.75">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
+    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{EA8866B6-CC94-4B71-96CE-BCC860C73547}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/HealthcareModule.xlsx
+++ b/Data/HealthcareModule.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miXgGd9Wk3piJm5vF/cxQx1fXqpyw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhn6tYGkKjSPi+iqgDeYqqTk55oGA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +101,7 @@
     <t>Please say more about your difficulty accessing medical care for yourself or your child(ren).</t>
   </si>
   <si>
-    <t>[Free Response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>Thinking about the past 12 months, did any of your family members go without health insurance at any time since September 2019 ?</t>
